--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf13</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H2">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I2">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J2">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.38041340379918</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N2">
-        <v>9.38041340379918</v>
+        <v>0.020476</v>
       </c>
       <c r="O2">
-        <v>0.321735600464174</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="P2">
-        <v>0.321735600464174</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="Q2">
-        <v>3.160224899682223</v>
+        <v>0.003510787658666667</v>
       </c>
       <c r="R2">
-        <v>3.160224899682223</v>
+        <v>0.03159708892800001</v>
       </c>
       <c r="S2">
-        <v>0.01362184898174281</v>
+        <v>1.300751042873921E-05</v>
       </c>
       <c r="T2">
-        <v>0.01362184898174281</v>
+        <v>1.300751042873921E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H3">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I3">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J3">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.8836498318493</v>
+        <v>9.905103</v>
       </c>
       <c r="N3">
-        <v>15.8836498318493</v>
+        <v>29.715309</v>
       </c>
       <c r="O3">
-        <v>0.5447878890010289</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="P3">
-        <v>0.5447878890010289</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="Q3">
-        <v>5.351140033563293</v>
+        <v>5.094947260728</v>
       </c>
       <c r="R3">
-        <v>5.351140033563293</v>
+        <v>45.854525346552</v>
       </c>
       <c r="S3">
-        <v>0.02306558037204474</v>
+        <v>0.0188768407750883</v>
       </c>
       <c r="T3">
-        <v>0.02306558037204474</v>
+        <v>0.0188768407750883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.336896122126376</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H4">
-        <v>0.336896122126376</v>
+        <v>1.543128</v>
       </c>
       <c r="I4">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J4">
-        <v>0.04233864378729092</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.89159560429923</v>
+        <v>16.576418</v>
       </c>
       <c r="N4">
-        <v>3.89159560429923</v>
+        <v>49.729254</v>
       </c>
       <c r="O4">
-        <v>0.1334765105347971</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="P4">
-        <v>0.1334765105347971</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="Q4">
-        <v>1.311063467972461</v>
+        <v>8.526511585168</v>
       </c>
       <c r="R4">
-        <v>1.311063467972461</v>
+        <v>76.73860426651201</v>
       </c>
       <c r="S4">
-        <v>0.005651214433503357</v>
+        <v>0.03159082779929777</v>
       </c>
       <c r="T4">
-        <v>0.005651214433503357</v>
+        <v>0.03159082779929777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94886625954818</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H5">
-        <v>3.94886625954818</v>
+        <v>1.543128</v>
       </c>
       <c r="I5">
-        <v>0.4962646671959802</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J5">
-        <v>0.4962646671959802</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.38041340379918</v>
+        <v>3.955061333333333</v>
       </c>
       <c r="N5">
-        <v>9.38041340379918</v>
+        <v>11.865184</v>
       </c>
       <c r="O5">
-        <v>0.321735600464174</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="P5">
-        <v>0.321735600464174</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="Q5">
-        <v>37.04199799087608</v>
+        <v>2.034388628394667</v>
       </c>
       <c r="R5">
-        <v>37.04199799087608</v>
+        <v>18.309497655552</v>
       </c>
       <c r="S5">
-        <v>0.1596660106894522</v>
+        <v>0.007537434294730886</v>
       </c>
       <c r="T5">
-        <v>0.1596660106894522</v>
+        <v>0.007537434294730886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94886625954818</v>
+        <v>0.5143760000000001</v>
       </c>
       <c r="H6">
-        <v>3.94886625954818</v>
+        <v>1.543128</v>
       </c>
       <c r="I6">
-        <v>0.4962646671959802</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="J6">
-        <v>0.4962646671959802</v>
+        <v>0.05817279150595395</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>15.8836498318493</v>
+        <v>0.08116466666666666</v>
       </c>
       <c r="N6">
-        <v>15.8836498318493</v>
+        <v>0.243494</v>
       </c>
       <c r="O6">
-        <v>0.5447878890010289</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="P6">
-        <v>0.5447878890010289</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="Q6">
-        <v>62.72240889946783</v>
+        <v>0.04174915658133334</v>
       </c>
       <c r="R6">
-        <v>62.72240889946783</v>
+        <v>0.375742409232</v>
       </c>
       <c r="S6">
-        <v>0.2703589804274962</v>
+        <v>0.0001546811264082548</v>
       </c>
       <c r="T6">
-        <v>0.2703589804274962</v>
+        <v>0.0001546811264082548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +838,1549 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.94886625954818</v>
+        <v>0.115299</v>
       </c>
       <c r="H7">
-        <v>3.94886625954818</v>
+        <v>0.345897</v>
       </c>
       <c r="I7">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J7">
-        <v>0.4962646671959802</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.89159560429923</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N7">
-        <v>3.89159560429923</v>
+        <v>0.020476</v>
       </c>
       <c r="O7">
-        <v>0.1334765105347971</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="P7">
-        <v>0.1334765105347971</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="Q7">
-        <v>15.36739057762324</v>
+        <v>0.000786954108</v>
       </c>
       <c r="R7">
-        <v>15.36739057762324</v>
+        <v>0.007082586972000001</v>
       </c>
       <c r="S7">
-        <v>0.06623967607903182</v>
+        <v>2.915674418952677E-06</v>
       </c>
       <c r="T7">
-        <v>0.06623967607903182</v>
+        <v>2.915674418952677E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.73589627117423</v>
+        <v>0.115299</v>
       </c>
       <c r="H8">
-        <v>2.73589627117423</v>
+        <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.3438274591381959</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J8">
-        <v>0.3438274591381959</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.38041340379918</v>
+        <v>9.905103</v>
       </c>
       <c r="N8">
-        <v>9.38041340379918</v>
+        <v>29.715309</v>
       </c>
       <c r="O8">
-        <v>0.321735600464174</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="P8">
-        <v>0.321735600464174</v>
+        <v>0.3244960450824553</v>
       </c>
       <c r="Q8">
-        <v>25.66383805352694</v>
+        <v>1.142048470797</v>
       </c>
       <c r="R8">
-        <v>25.66383805352694</v>
+        <v>10.278436237173</v>
       </c>
       <c r="S8">
-        <v>0.1106215340218987</v>
+        <v>0.004231303296668014</v>
       </c>
       <c r="T8">
-        <v>0.1106215340218987</v>
+        <v>0.004231303296668014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.73589627117423</v>
+        <v>0.115299</v>
       </c>
       <c r="H9">
-        <v>2.73589627117423</v>
+        <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.3438274591381959</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J9">
-        <v>0.3438274591381959</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8836498318493</v>
+        <v>16.576418</v>
       </c>
       <c r="N9">
-        <v>15.8836498318493</v>
+        <v>49.729254</v>
       </c>
       <c r="O9">
-        <v>0.5447878890010289</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="P9">
-        <v>0.5447878890010289</v>
+        <v>0.5430516050800909</v>
       </c>
       <c r="Q9">
-        <v>43.45601834759369</v>
+        <v>1.911244418982</v>
       </c>
       <c r="R9">
-        <v>43.45601834759369</v>
+        <v>17.201199770838</v>
       </c>
       <c r="S9">
-        <v>0.1873130356444853</v>
+        <v>0.00708118352028717</v>
       </c>
       <c r="T9">
-        <v>0.1873130356444853</v>
+        <v>0.00708118352028717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.73589627117423</v>
+        <v>0.115299</v>
       </c>
       <c r="H10">
-        <v>2.73589627117423</v>
+        <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.3438274591381959</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J10">
-        <v>0.3438274591381959</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.89159560429923</v>
+        <v>3.955061333333333</v>
       </c>
       <c r="N10">
-        <v>3.89159560429923</v>
+        <v>11.865184</v>
       </c>
       <c r="O10">
-        <v>0.1334765105347971</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="P10">
-        <v>0.1334765105347971</v>
+        <v>0.1295697541686552</v>
       </c>
       <c r="Q10">
-        <v>10.64700190272029</v>
+        <v>0.456014616672</v>
       </c>
       <c r="R10">
-        <v>10.64700190272029</v>
+        <v>4.104131550048</v>
       </c>
       <c r="S10">
-        <v>0.04589288947181192</v>
+        <v>0.001689539630053067</v>
       </c>
       <c r="T10">
-        <v>0.04589288947181192</v>
+        <v>0.001689539630053067</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.935519281780864</v>
+        <v>0.115299</v>
       </c>
       <c r="H11">
-        <v>0.935519281780864</v>
+        <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.117569229878533</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="J11">
-        <v>0.117569229878533</v>
+        <v>0.01303961438295135</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>9.38041340379918</v>
+        <v>0.08116466666666666</v>
       </c>
       <c r="N11">
-        <v>9.38041340379918</v>
+        <v>0.243494</v>
       </c>
       <c r="O11">
-        <v>0.321735600464174</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="P11">
-        <v>0.321735600464174</v>
+        <v>0.002658994392463069</v>
       </c>
       <c r="Q11">
-        <v>8.775557610329798</v>
+        <v>0.009358204901999999</v>
       </c>
       <c r="R11">
-        <v>8.775557610329798</v>
+        <v>0.084223844118</v>
       </c>
       <c r="S11">
-        <v>0.03782620677108034</v>
+        <v>3.467226152414842E-05</v>
       </c>
       <c r="T11">
-        <v>0.03782620677108034</v>
+        <v>3.467226152414842E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.935519281780864</v>
+        <v>4.255346333333334</v>
       </c>
       <c r="H12">
-        <v>0.935519281780864</v>
+        <v>12.766039</v>
       </c>
       <c r="I12">
-        <v>0.117569229878533</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="J12">
-        <v>0.117569229878533</v>
+        <v>0.4812537424658725</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>15.8836498318493</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N12">
-        <v>15.8836498318493</v>
+        <v>0.020476</v>
       </c>
       <c r="O12">
-        <v>0.5447878890010289</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="P12">
-        <v>0.5447878890010289</v>
+        <v>0.0002236012763356543</v>
       </c>
       <c r="Q12">
-        <v>14.8594606827504</v>
+        <v>0.02904415717377778</v>
       </c>
       <c r="R12">
-        <v>14.8594606827504</v>
+        <v>0.261397414564</v>
       </c>
       <c r="S12">
-        <v>0.0640502925570027</v>
+        <v>0.0001076089510566794</v>
       </c>
       <c r="T12">
-        <v>0.0640502925570027</v>
+        <v>0.0001076089510566794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.255346333333334</v>
+      </c>
+      <c r="H13">
+        <v>12.766039</v>
+      </c>
+      <c r="I13">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="J13">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.905103</v>
+      </c>
+      <c r="N13">
+        <v>29.715309</v>
+      </c>
+      <c r="O13">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P13">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q13">
+        <v>42.14964373233901</v>
+      </c>
+      <c r="R13">
+        <v>379.346793591051</v>
+      </c>
+      <c r="S13">
+        <v>0.1561649361113061</v>
+      </c>
+      <c r="T13">
+        <v>0.1561649361113061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.255346333333334</v>
+      </c>
+      <c r="H14">
+        <v>12.766039</v>
+      </c>
+      <c r="I14">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="J14">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.576418</v>
+      </c>
+      <c r="N14">
+        <v>49.729254</v>
+      </c>
+      <c r="O14">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P14">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q14">
+        <v>70.53839955610067</v>
+      </c>
+      <c r="R14">
+        <v>634.8455960049062</v>
+      </c>
+      <c r="S14">
+        <v>0.2613456172968928</v>
+      </c>
+      <c r="T14">
+        <v>0.2613456172968928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.255346333333334</v>
+      </c>
+      <c r="H15">
+        <v>12.766039</v>
+      </c>
+      <c r="I15">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="J15">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N15">
+        <v>11.865184</v>
+      </c>
+      <c r="O15">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P15">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q15">
+        <v>16.83015574290845</v>
+      </c>
+      <c r="R15">
+        <v>151.471401686176</v>
+      </c>
+      <c r="S15">
+        <v>0.06235592910404839</v>
+      </c>
+      <c r="T15">
+        <v>0.06235592910404839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.255346333333334</v>
+      </c>
+      <c r="H16">
+        <v>12.766039</v>
+      </c>
+      <c r="I16">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="J16">
+        <v>0.4812537424658725</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.243494</v>
+      </c>
+      <c r="O16">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P16">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q16">
+        <v>0.3453837666962222</v>
+      </c>
+      <c r="R16">
+        <v>3.108453900266</v>
+      </c>
+      <c r="S16">
+        <v>0.001279651002568621</v>
+      </c>
+      <c r="T16">
+        <v>0.001279651002568621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.935519281780864</v>
-      </c>
-      <c r="H13">
-        <v>0.935519281780864</v>
-      </c>
-      <c r="I13">
-        <v>0.117569229878533</v>
-      </c>
-      <c r="J13">
-        <v>0.117569229878533</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.89159560429923</v>
-      </c>
-      <c r="N13">
-        <v>3.89159560429923</v>
-      </c>
-      <c r="O13">
-        <v>0.1334765105347971</v>
-      </c>
-      <c r="P13">
-        <v>0.1334765105347971</v>
-      </c>
-      <c r="Q13">
-        <v>3.640662724715583</v>
-      </c>
-      <c r="R13">
-        <v>3.640662724715583</v>
-      </c>
-      <c r="S13">
-        <v>0.01569273055045</v>
-      </c>
-      <c r="T13">
-        <v>0.01569273055045</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H17">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J17">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.006825333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.020476</v>
+      </c>
+      <c r="O17">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="P17">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="Q17">
+        <v>0.01883967638577778</v>
+      </c>
+      <c r="R17">
+        <v>0.169557087472</v>
+      </c>
+      <c r="S17">
+        <v>6.98012272138226E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.980122721382259E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H18">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J18">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.905103</v>
+      </c>
+      <c r="N18">
+        <v>29.715309</v>
+      </c>
+      <c r="O18">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P18">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q18">
+        <v>27.340633193172</v>
+      </c>
+      <c r="R18">
+        <v>246.065698738548</v>
+      </c>
+      <c r="S18">
+        <v>0.101297374254637</v>
+      </c>
+      <c r="T18">
+        <v>0.101297374254637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J19">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.576418</v>
+      </c>
+      <c r="N19">
+        <v>49.729254</v>
+      </c>
+      <c r="O19">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P19">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q19">
+        <v>45.75517934489866</v>
+      </c>
+      <c r="R19">
+        <v>411.796614104088</v>
+      </c>
+      <c r="S19">
+        <v>0.16952348884684</v>
+      </c>
+      <c r="T19">
+        <v>0.16952348884684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H20">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J20">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N20">
+        <v>11.865184</v>
+      </c>
+      <c r="O20">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P20">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q20">
+        <v>10.91698704911644</v>
+      </c>
+      <c r="R20">
+        <v>98.25288344204799</v>
+      </c>
+      <c r="S20">
+        <v>0.04044756809522428</v>
+      </c>
+      <c r="T20">
+        <v>0.04044756809522428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.760257333333333</v>
+      </c>
+      <c r="H21">
+        <v>8.280771999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="J21">
+        <v>0.3121682861462829</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.243494</v>
+      </c>
+      <c r="O21">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P21">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q21">
+        <v>0.2240353663742222</v>
+      </c>
+      <c r="R21">
+        <v>2.016318297368</v>
+      </c>
+      <c r="S21">
+        <v>0.000830053722367773</v>
+      </c>
+      <c r="T21">
+        <v>0.0008300537223677728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.07759</v>
+      </c>
+      <c r="H22">
+        <v>3.23277</v>
+      </c>
+      <c r="I22">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J22">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.006825333333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.020476</v>
+      </c>
+      <c r="O22">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="P22">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="Q22">
+        <v>0.007354910946666667</v>
+      </c>
+      <c r="R22">
+        <v>0.06619419852</v>
+      </c>
+      <c r="S22">
+        <v>2.725003336645778E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.725003336645777E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.07759</v>
+      </c>
+      <c r="H23">
+        <v>3.23277</v>
+      </c>
+      <c r="I23">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J23">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.905103</v>
+      </c>
+      <c r="N23">
+        <v>29.715309</v>
+      </c>
+      <c r="O23">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P23">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q23">
+        <v>10.67363994177</v>
+      </c>
+      <c r="R23">
+        <v>96.06275947593001</v>
+      </c>
+      <c r="S23">
+        <v>0.03954596414068192</v>
+      </c>
+      <c r="T23">
+        <v>0.03954596414068192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.07759</v>
+      </c>
+      <c r="H24">
+        <v>3.23277</v>
+      </c>
+      <c r="I24">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J24">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>16.576418</v>
+      </c>
+      <c r="N24">
+        <v>49.729254</v>
+      </c>
+      <c r="O24">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P24">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q24">
+        <v>17.86258227262</v>
+      </c>
+      <c r="R24">
+        <v>160.76324045358</v>
+      </c>
+      <c r="S24">
+        <v>0.06618108179278442</v>
+      </c>
+      <c r="T24">
+        <v>0.06618108179278442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.07759</v>
+      </c>
+      <c r="H25">
+        <v>3.23277</v>
+      </c>
+      <c r="I25">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J25">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N25">
+        <v>11.865184</v>
+      </c>
+      <c r="O25">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P25">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q25">
+        <v>4.261934542186666</v>
+      </c>
+      <c r="R25">
+        <v>38.35741087968</v>
+      </c>
+      <c r="S25">
+        <v>0.01579051865106275</v>
+      </c>
+      <c r="T25">
+        <v>0.01579051865106275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.07759</v>
+      </c>
+      <c r="H26">
+        <v>3.23277</v>
+      </c>
+      <c r="I26">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="J26">
+        <v>0.1218688632418715</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.243494</v>
+      </c>
+      <c r="O26">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P26">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q26">
+        <v>0.08746223315333333</v>
+      </c>
+      <c r="R26">
+        <v>0.7871600983799999</v>
+      </c>
+      <c r="S26">
+        <v>0.000324048623975985</v>
+      </c>
+      <c r="T26">
+        <v>0.000324048623975985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.358022</v>
+      </c>
+      <c r="I27">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J27">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.006825333333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.020476</v>
+      </c>
+      <c r="O27">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="P27">
+        <v>0.0002236012763356543</v>
+      </c>
+      <c r="Q27">
+        <v>0.0008145398302222222</v>
+      </c>
+      <c r="R27">
+        <v>0.007330858472000001</v>
+      </c>
+      <c r="S27">
+        <v>3.017879851002684E-06</v>
+      </c>
+      <c r="T27">
+        <v>3.017879851002684E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.358022</v>
+      </c>
+      <c r="I28">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J28">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.905103</v>
+      </c>
+      <c r="N28">
+        <v>29.715309</v>
+      </c>
+      <c r="O28">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="P28">
+        <v>0.3244960450824553</v>
+      </c>
+      <c r="Q28">
+        <v>1.182081595422</v>
+      </c>
+      <c r="R28">
+        <v>10.638734358798</v>
+      </c>
+      <c r="S28">
+        <v>0.004379626504073975</v>
+      </c>
+      <c r="T28">
+        <v>0.004379626504073975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.358022</v>
+      </c>
+      <c r="I29">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J29">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>16.576418</v>
+      </c>
+      <c r="N29">
+        <v>49.729254</v>
+      </c>
+      <c r="O29">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="P29">
+        <v>0.5430516050800909</v>
+      </c>
+      <c r="Q29">
+        <v>1.978240775065333</v>
+      </c>
+      <c r="R29">
+        <v>17.804166975588</v>
+      </c>
+      <c r="S29">
+        <v>0.007329405823988798</v>
+      </c>
+      <c r="T29">
+        <v>0.007329405823988798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.358022</v>
+      </c>
+      <c r="I30">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J30">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.955061333333333</v>
+      </c>
+      <c r="N30">
+        <v>11.865184</v>
+      </c>
+      <c r="O30">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="P30">
+        <v>0.1295697541686552</v>
+      </c>
+      <c r="Q30">
+        <v>0.4719996562275555</v>
+      </c>
+      <c r="R30">
+        <v>4.247996906048</v>
+      </c>
+      <c r="S30">
+        <v>0.001748764393535819</v>
+      </c>
+      <c r="T30">
+        <v>0.001748764393535819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1193406666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.358022</v>
+      </c>
+      <c r="I31">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="J31">
+        <v>0.01349670225706788</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.08116466666666666</v>
+      </c>
+      <c r="N31">
+        <v>0.243494</v>
+      </c>
+      <c r="O31">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="P31">
+        <v>0.002658994392463069</v>
+      </c>
+      <c r="Q31">
+        <v>0.009686245429777777</v>
+      </c>
+      <c r="R31">
+        <v>0.087176208868</v>
+      </c>
+      <c r="S31">
+        <v>3.588765561828714E-05</v>
+      </c>
+      <c r="T31">
+        <v>3.588765561828713E-05</v>
       </c>
     </row>
   </sheetData>
